--- a/excel/Описание_работ/5/Биология/ALL.xlsx
+++ b/excel/Описание_работ/5/Биология/ALL.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="75">
   <si>
     <t>№</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>10K3</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
 </sst>
 </file>
@@ -561,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1463,7 @@
         <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>15</v>
